--- a/src/main/resources/assets/_test/docs/xlsx/_IF010.xlsx
+++ b/src/main/resources/assets/_test/docs/xlsx/_IF010.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\_dev\_workspace\sts4-workspace\pjt_hanwha_life_mvc\src\main\resources\_test\docs\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\_dev\_workspace\sts4-workspace\pjt_hanwha_life_mvc\src\main\resources\assets\_test\docs\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="69">
   <si>
     <t>시스템명</t>
   </si>
@@ -54,175 +54,180 @@
     <t>수신서비스ID</t>
   </si>
   <si>
+    <t>수신서비스명</t>
+  </si>
+  <si>
+    <t>결과 수신서비스</t>
+  </si>
+  <si>
+    <t>타임아웃 처리서비스</t>
+  </si>
+  <si>
+    <t>시스템구분</t>
+  </si>
+  <si>
+    <t>대내</t>
+  </si>
+  <si>
+    <t>1. 요청전문</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>설명</t>
+  </si>
+  <si>
+    <t>시스템</t>
+  </si>
+  <si>
+    <t>MCC(화상상담)</t>
+  </si>
+  <si>
+    <t>ICS(코어-통합고객지원)</t>
+  </si>
+  <si>
+    <t>담당자(연락처)</t>
+  </si>
+  <si>
+    <t>데이터포맷</t>
+  </si>
+  <si>
+    <t>Json</t>
+  </si>
+  <si>
+    <t>인터페이스방식</t>
+  </si>
+  <si>
+    <t>HTTP</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>필드명</t>
+  </si>
+  <si>
+    <t>I/O</t>
+  </si>
+  <si>
+    <t>필드속성</t>
+  </si>
+  <si>
+    <t>필드길이</t>
+  </si>
+  <si>
+    <t>소수점이하</t>
+  </si>
+  <si>
+    <t>반복여부</t>
+  </si>
+  <si>
+    <t>반복횟수</t>
+  </si>
+  <si>
+    <t>한글명</t>
+  </si>
+  <si>
+    <t>영문명</t>
+  </si>
+  <si>
+    <t>데이터헤더</t>
+  </si>
+  <si>
+    <t>dataHeader</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>GROUP_GROUP</t>
+  </si>
+  <si>
+    <t>STRING</t>
+  </si>
+  <si>
+    <t>서비스ID</t>
+  </si>
+  <si>
+    <t>SRVC_ID</t>
+  </si>
+  <si>
+    <t>화면ID</t>
+  </si>
+  <si>
+    <t>SCRN_ID</t>
+  </si>
+  <si>
+    <t>처리코드</t>
+  </si>
+  <si>
+    <t>CRTF_RTCD</t>
+  </si>
+  <si>
+    <t>처리결과메세지</t>
+  </si>
+  <si>
+    <t>DLRE_MSG</t>
+  </si>
+  <si>
+    <t>기관코드</t>
+  </si>
+  <si>
+    <t>ORGN_CODE</t>
+  </si>
+  <si>
+    <t>사용자ID</t>
+  </si>
+  <si>
+    <t>USER_ID</t>
+  </si>
+  <si>
+    <t>데이터바디</t>
+  </si>
+  <si>
+    <t>dataBody</t>
+  </si>
+  <si>
+    <t>고객자격</t>
+  </si>
+  <si>
+    <t>grant_type</t>
+  </si>
+  <si>
+    <t>2. 응답전문</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>액세스토큰</t>
+  </si>
+  <si>
+    <t>access_token</t>
+  </si>
+  <si>
+    <t>토큰타입</t>
+  </si>
+  <si>
+    <t>token_type</t>
+  </si>
+  <si>
+    <t>토큰유효시간</t>
+  </si>
+  <si>
+    <t>expires_in</t>
+  </si>
+  <si>
+    <t>간편인증 토큰발급</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>hcsInitechToken</t>
-  </si>
-  <si>
-    <t>수신서비스명</t>
-  </si>
-  <si>
-    <t>결과 수신서비스</t>
-  </si>
-  <si>
-    <t>타임아웃 처리서비스</t>
-  </si>
-  <si>
-    <t>시스템구분</t>
-  </si>
-  <si>
-    <t>대내</t>
-  </si>
-  <si>
-    <t>1. 요청전문</t>
-  </si>
-  <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>Target</t>
-  </si>
-  <si>
-    <t>설명</t>
-  </si>
-  <si>
-    <t>시스템</t>
-  </si>
-  <si>
-    <t>MCC(화상상담)</t>
-  </si>
-  <si>
-    <t>ICS(코어-통합고객지원)</t>
-  </si>
-  <si>
-    <t>담당자(연락처)</t>
-  </si>
-  <si>
-    <t>데이터포맷</t>
-  </si>
-  <si>
-    <t>Json</t>
-  </si>
-  <si>
-    <t>인터페이스방식</t>
-  </si>
-  <si>
-    <t>HTTP</t>
-  </si>
-  <si>
-    <t>No.</t>
-  </si>
-  <si>
-    <t>필드명</t>
-  </si>
-  <si>
-    <t>I/O</t>
-  </si>
-  <si>
-    <t>필드속성</t>
-  </si>
-  <si>
-    <t>필드길이</t>
-  </si>
-  <si>
-    <t>소수점이하</t>
-  </si>
-  <si>
-    <t>반복여부</t>
-  </si>
-  <si>
-    <t>반복횟수</t>
-  </si>
-  <si>
-    <t>한글명</t>
-  </si>
-  <si>
-    <t>영문명</t>
-  </si>
-  <si>
-    <t>데이터헤더</t>
-  </si>
-  <si>
-    <t>dataHeader</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>GROUP_GROUP</t>
-  </si>
-  <si>
-    <t>STRING</t>
-  </si>
-  <si>
-    <t>서비스ID</t>
-  </si>
-  <si>
-    <t>SRVC_ID</t>
-  </si>
-  <si>
-    <t>화면ID</t>
-  </si>
-  <si>
-    <t>SCRN_ID</t>
-  </si>
-  <si>
-    <t>처리코드</t>
-  </si>
-  <si>
-    <t>CRTF_RTCD</t>
-  </si>
-  <si>
-    <t>처리결과메세지</t>
-  </si>
-  <si>
-    <t>DLRE_MSG</t>
-  </si>
-  <si>
-    <t>기관코드</t>
-  </si>
-  <si>
-    <t>ORGN_CODE</t>
-  </si>
-  <si>
-    <t>사용자ID</t>
-  </si>
-  <si>
-    <t>USER_ID</t>
-  </si>
-  <si>
-    <t>데이터바디</t>
-  </si>
-  <si>
-    <t>dataBody</t>
-  </si>
-  <si>
-    <t>고객자격</t>
-  </si>
-  <si>
-    <t>grant_type</t>
-  </si>
-  <si>
-    <t>2. 응답전문</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>액세스토큰</t>
-  </si>
-  <si>
-    <t>access_token</t>
-  </si>
-  <si>
-    <t>토큰타입</t>
-  </si>
-  <si>
-    <t>token_type</t>
-  </si>
-  <si>
-    <t>토큰유효시간</t>
-  </si>
-  <si>
-    <t>expires_in</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -390,7 +395,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -568,6 +573,18 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -815,8 +832,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1142,8 +1165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:T46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1202,177 +1225,177 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="M5" t="s">
+        <v>12</v>
+      </c>
+      <c r="T5" t="s">
         <v>13</v>
-      </c>
-      <c r="M5" t="s">
-        <v>13</v>
-      </c>
-      <c r="T5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
         <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" t="s">
         <v>18</v>
       </c>
-      <c r="J9" t="s">
+      <c r="S9" t="s">
         <v>19</v>
-      </c>
-      <c r="S9" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
         <v>21</v>
       </c>
-      <c r="B10" t="s">
+      <c r="J10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" t="s">
         <v>22</v>
-      </c>
-      <c r="J10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
         <v>25</v>
       </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
       <c r="J12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" t="s">
         <v>25</v>
-      </c>
-      <c r="K12" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
         <v>27</v>
       </c>
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
       <c r="J13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" t="s">
         <v>27</v>
-      </c>
-      <c r="K13" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
         <v>29</v>
       </c>
-      <c r="B14" t="s">
+      <c r="D14" t="s">
         <v>30</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>31</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>32</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>33</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>34</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>35</v>
       </c>
-      <c r="I14" t="s">
-        <v>36</v>
-      </c>
       <c r="J14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" t="s">
         <v>29</v>
       </c>
-      <c r="K14" t="s">
+      <c r="M14" t="s">
         <v>30</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>31</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>32</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>33</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>34</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>35</v>
-      </c>
-      <c r="R14" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
         <v>37</v>
       </c>
-      <c r="C15" t="s">
+      <c r="K15" t="s">
+        <v>36</v>
+      </c>
+      <c r="L15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
         <v>38</v>
       </c>
-      <c r="K15" t="s">
-        <v>37</v>
-      </c>
-      <c r="L15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>39</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>40</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>41</v>
-      </c>
-      <c r="E16" t="s">
-        <v>42</v>
       </c>
       <c r="F16">
         <v>-1</v>
@@ -1381,36 +1404,36 @@
         <v>1</v>
       </c>
       <c r="K16" t="s">
+        <v>38</v>
+      </c>
+      <c r="L16" t="s">
         <v>39</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>40</v>
       </c>
-      <c r="M16" t="s">
-        <v>41</v>
-      </c>
       <c r="N16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O16">
         <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>2</v>
       </c>
       <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
         <v>44</v>
       </c>
-      <c r="C17" t="s">
-        <v>45</v>
-      </c>
       <c r="D17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F17">
         <v>6</v>
@@ -1419,36 +1442,36 @@
         <v>2</v>
       </c>
       <c r="K17" t="s">
+        <v>43</v>
+      </c>
+      <c r="L17" t="s">
         <v>44</v>
       </c>
-      <c r="L17" t="s">
-        <v>45</v>
-      </c>
       <c r="M17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O17">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>3</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C18" t="s">
-        <v>47</v>
-      </c>
       <c r="D18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F18">
         <v>20</v>
@@ -1457,36 +1480,36 @@
         <v>3</v>
       </c>
       <c r="K18" t="s">
+        <v>45</v>
+      </c>
+      <c r="L18" t="s">
         <v>46</v>
       </c>
-      <c r="L18" t="s">
-        <v>47</v>
-      </c>
       <c r="M18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O18">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>4</v>
       </c>
       <c r="B19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" t="s">
         <v>48</v>
       </c>
-      <c r="C19" t="s">
-        <v>49</v>
-      </c>
       <c r="D19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F19">
         <v>4</v>
@@ -1495,36 +1518,36 @@
         <v>4</v>
       </c>
       <c r="K19" t="s">
+        <v>47</v>
+      </c>
+      <c r="L19" t="s">
         <v>48</v>
       </c>
-      <c r="L19" t="s">
-        <v>49</v>
-      </c>
       <c r="M19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O19">
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>5</v>
       </c>
       <c r="B20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" t="s">
         <v>50</v>
       </c>
-      <c r="C20" t="s">
-        <v>51</v>
-      </c>
       <c r="D20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F20">
         <v>100</v>
@@ -1533,36 +1556,36 @@
         <v>5</v>
       </c>
       <c r="K20" t="s">
+        <v>49</v>
+      </c>
+      <c r="L20" t="s">
         <v>50</v>
       </c>
-      <c r="L20" t="s">
-        <v>51</v>
-      </c>
       <c r="M20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O20">
         <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>6</v>
       </c>
       <c r="B21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" t="s">
         <v>52</v>
       </c>
-      <c r="C21" t="s">
-        <v>53</v>
-      </c>
       <c r="D21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F21">
         <v>5</v>
@@ -1571,16 +1594,16 @@
         <v>6</v>
       </c>
       <c r="K21" t="s">
+        <v>51</v>
+      </c>
+      <c r="L21" t="s">
         <v>52</v>
       </c>
-      <c r="L21" t="s">
-        <v>53</v>
-      </c>
       <c r="M21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O21">
         <v>5</v>
@@ -1590,17 +1613,17 @@
       <c r="A22">
         <v>7</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C22" t="s">
-        <v>55</v>
-      </c>
       <c r="D22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F22">
         <v>20</v>
@@ -1609,36 +1632,36 @@
         <v>7</v>
       </c>
       <c r="K22" t="s">
+        <v>53</v>
+      </c>
+      <c r="L22" t="s">
         <v>54</v>
       </c>
-      <c r="L22" t="s">
-        <v>55</v>
-      </c>
       <c r="M22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O22">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23">
+      <c r="A23" s="1">
         <v>8</v>
       </c>
       <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" t="s">
         <v>56</v>
       </c>
-      <c r="C23" t="s">
-        <v>57</v>
-      </c>
       <c r="D23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" t="s">
         <v>41</v>
-      </c>
-      <c r="E23" t="s">
-        <v>42</v>
       </c>
       <c r="F23">
         <v>-1</v>
@@ -1647,36 +1670,36 @@
         <v>8</v>
       </c>
       <c r="K23" t="s">
+        <v>55</v>
+      </c>
+      <c r="L23" t="s">
         <v>56</v>
       </c>
-      <c r="L23" t="s">
-        <v>57</v>
-      </c>
       <c r="M23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O23">
         <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24">
+      <c r="A24" s="1">
         <v>9</v>
       </c>
       <c r="B24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" t="s">
         <v>58</v>
       </c>
-      <c r="C24" t="s">
-        <v>59</v>
-      </c>
       <c r="D24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F24">
         <v>20</v>
@@ -1685,16 +1708,16 @@
         <v>9</v>
       </c>
       <c r="K24" t="s">
+        <v>57</v>
+      </c>
+      <c r="L24" t="s">
         <v>58</v>
       </c>
-      <c r="L24" t="s">
-        <v>59</v>
-      </c>
       <c r="M24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O24">
         <v>20</v>
@@ -1702,74 +1725,74 @@
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" t="s">
         <v>29</v>
       </c>
-      <c r="B36" t="s">
+      <c r="D36" t="s">
         <v>30</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>31</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>32</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>33</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>34</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>35</v>
       </c>
-      <c r="I36" t="s">
-        <v>36</v>
-      </c>
       <c r="J36" t="s">
+        <v>28</v>
+      </c>
+      <c r="K36" t="s">
         <v>29</v>
       </c>
-      <c r="K36" t="s">
+      <c r="M36" t="s">
         <v>30</v>
       </c>
-      <c r="M36" t="s">
+      <c r="N36" t="s">
         <v>31</v>
       </c>
-      <c r="N36" t="s">
+      <c r="O36" t="s">
         <v>32</v>
       </c>
-      <c r="O36" t="s">
+      <c r="P36" t="s">
         <v>33</v>
       </c>
-      <c r="P36" t="s">
+      <c r="Q36" t="s">
         <v>34</v>
       </c>
-      <c r="Q36" t="s">
+      <c r="R36" t="s">
         <v>35</v>
       </c>
-      <c r="R36" t="s">
-        <v>36</v>
-      </c>
       <c r="S36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
         <v>37</v>
       </c>
-      <c r="C37" t="s">
-        <v>38</v>
-      </c>
       <c r="K37" t="s">
+        <v>36</v>
+      </c>
+      <c r="L37" t="s">
         <v>37</v>
-      </c>
-      <c r="L37" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.3">
@@ -1777,16 +1800,16 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
         <v>39</v>
       </c>
-      <c r="C38" t="s">
-        <v>40</v>
-      </c>
       <c r="D38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F38">
         <v>-1</v>
@@ -1795,16 +1818,16 @@
         <v>1</v>
       </c>
       <c r="K38" t="s">
+        <v>38</v>
+      </c>
+      <c r="L38" t="s">
         <v>39</v>
       </c>
-      <c r="L38" t="s">
-        <v>40</v>
-      </c>
       <c r="M38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O38">
         <v>-1</v>
@@ -1815,16 +1838,16 @@
         <v>2</v>
       </c>
       <c r="B39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" t="s">
         <v>44</v>
       </c>
-      <c r="C39" t="s">
-        <v>45</v>
-      </c>
       <c r="D39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F39">
         <v>6</v>
@@ -1833,16 +1856,16 @@
         <v>2</v>
       </c>
       <c r="K39" t="s">
+        <v>43</v>
+      </c>
+      <c r="L39" t="s">
         <v>44</v>
       </c>
-      <c r="L39" t="s">
-        <v>45</v>
-      </c>
       <c r="M39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O39">
         <v>6</v>
@@ -1853,16 +1876,16 @@
         <v>3</v>
       </c>
       <c r="B40" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" t="s">
         <v>46</v>
       </c>
-      <c r="C40" t="s">
-        <v>47</v>
-      </c>
       <c r="D40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F40">
         <v>20</v>
@@ -1871,16 +1894,16 @@
         <v>3</v>
       </c>
       <c r="K40" t="s">
+        <v>45</v>
+      </c>
+      <c r="L40" t="s">
         <v>46</v>
       </c>
-      <c r="L40" t="s">
-        <v>47</v>
-      </c>
       <c r="M40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O40">
         <v>20</v>
@@ -1891,16 +1914,16 @@
         <v>4</v>
       </c>
       <c r="B41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" t="s">
         <v>48</v>
       </c>
-      <c r="C41" t="s">
-        <v>49</v>
-      </c>
       <c r="D41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F41">
         <v>4</v>
@@ -1909,16 +1932,16 @@
         <v>4</v>
       </c>
       <c r="K41" t="s">
+        <v>47</v>
+      </c>
+      <c r="L41" t="s">
         <v>48</v>
       </c>
-      <c r="L41" t="s">
-        <v>49</v>
-      </c>
       <c r="M41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O41">
         <v>4</v>
@@ -1929,16 +1952,16 @@
         <v>5</v>
       </c>
       <c r="B42" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" t="s">
         <v>50</v>
       </c>
-      <c r="C42" t="s">
-        <v>51</v>
-      </c>
       <c r="D42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F42">
         <v>100</v>
@@ -1947,16 +1970,16 @@
         <v>5</v>
       </c>
       <c r="K42" t="s">
+        <v>49</v>
+      </c>
+      <c r="L42" t="s">
         <v>50</v>
       </c>
-      <c r="L42" t="s">
-        <v>51</v>
-      </c>
       <c r="M42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O42">
         <v>100</v>
@@ -1967,16 +1990,16 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" t="s">
         <v>56</v>
       </c>
-      <c r="C43" t="s">
-        <v>57</v>
-      </c>
       <c r="D43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F43">
         <v>-1</v>
@@ -1985,16 +2008,16 @@
         <v>6</v>
       </c>
       <c r="K43" t="s">
+        <v>55</v>
+      </c>
+      <c r="L43" t="s">
         <v>56</v>
       </c>
-      <c r="L43" t="s">
-        <v>57</v>
-      </c>
       <c r="M43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O43">
         <v>-1</v>
@@ -2005,16 +2028,16 @@
         <v>7</v>
       </c>
       <c r="B44" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" t="s">
         <v>62</v>
       </c>
-      <c r="C44" t="s">
-        <v>63</v>
-      </c>
       <c r="D44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F44">
         <v>100</v>
@@ -2023,16 +2046,16 @@
         <v>7</v>
       </c>
       <c r="K44" t="s">
+        <v>61</v>
+      </c>
+      <c r="L44" t="s">
         <v>62</v>
       </c>
-      <c r="L44" t="s">
-        <v>63</v>
-      </c>
       <c r="M44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O44">
         <v>100</v>
@@ -2043,16 +2066,16 @@
         <v>8</v>
       </c>
       <c r="B45" t="s">
+        <v>63</v>
+      </c>
+      <c r="C45" t="s">
         <v>64</v>
       </c>
-      <c r="C45" t="s">
-        <v>65</v>
-      </c>
       <c r="D45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F45">
         <v>10</v>
@@ -2061,16 +2084,16 @@
         <v>8</v>
       </c>
       <c r="K45" t="s">
+        <v>63</v>
+      </c>
+      <c r="L45" t="s">
         <v>64</v>
       </c>
-      <c r="L45" t="s">
-        <v>65</v>
-      </c>
       <c r="M45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O45">
         <v>10</v>
@@ -2081,16 +2104,16 @@
         <v>9</v>
       </c>
       <c r="B46" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" t="s">
         <v>66</v>
       </c>
-      <c r="C46" t="s">
-        <v>67</v>
-      </c>
       <c r="D46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F46">
         <v>20</v>
@@ -2099,16 +2122,16 @@
         <v>9</v>
       </c>
       <c r="K46" t="s">
+        <v>65</v>
+      </c>
+      <c r="L46" t="s">
         <v>66</v>
       </c>
-      <c r="L46" t="s">
-        <v>67</v>
-      </c>
       <c r="M46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O46">
         <v>20</v>
